--- a/dataSQL.xlsx
+++ b/dataSQL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>#</t>
   </si>
@@ -25,22 +25,25 @@
     <t>Type</t>
   </si>
   <si>
-    <t>CoLLeGe</t>
+    <t>college</t>
   </si>
   <si>
-    <t>ConStaNT</t>
+    <t>constant</t>
   </si>
   <si>
     <t>Class</t>
   </si>
   <si>
-    <t>constant</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
+    <t>master</t>
+  </si>
+  <si>
     <t>transactional</t>
+  </si>
+  <si>
+    <t>transactional,lll;l;l</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +418,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -423,10 +426,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -434,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -445,10 +448,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -456,10 +459,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -470,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -481,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -489,10 +492,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -500,10 +503,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -511,10 +514,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -522,10 +525,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -536,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -547,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -555,10 +558,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -566,10 +569,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -577,10 +580,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -588,10 +591,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -602,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -613,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -621,10 +624,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -635,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -646,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -654,10 +657,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -668,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -679,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -687,10 +690,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -701,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -712,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -720,10 +723,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -734,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -745,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -753,7 +756,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -767,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -778,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -786,10 +789,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -800,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -811,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -819,10 +822,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -833,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -844,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -852,10 +855,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -866,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -877,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -885,7 +888,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -899,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -910,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -918,7 +921,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -932,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -943,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -951,7 +954,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
@@ -965,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -976,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -984,7 +987,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -998,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1009,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1017,7 +1020,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -1031,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1042,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1050,10 +1053,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1064,7 +1067,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1075,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1083,208 +1086,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
